--- a/biology/Zoologie/Afrotyphlops_punctatus/Afrotyphlops_punctatus.xlsx
+++ b/biology/Zoologie/Afrotyphlops_punctatus/Afrotyphlops_punctatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrotyphlops punctatus est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrotyphlops punctatus est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Sénégal, en Gambie, en Guinée-Bissau, au Sierra Leone, en Guinée, dans le Sud du Mali, en Côte d'Ivoire, au Burkina Faso, au Ghana, au Togo, au Bénin, au Nigeria, au Cameroun, sur l'île de Bioko en Guinée équatoriale, dans le Sud-Ouest du Tchad, en République centrafricaine, au Soudan, en Ouganda, dans le sud-ouest de l'Éthiopie et dans le nord de la République démocratique du Congo][1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Sénégal, en Gambie, en Guinée-Bissau, au Sierra Leone, en Guinée, dans le Sud du Mali, en Côte d'Ivoire, au Burkina Faso, au Ghana, au Togo, au Bénin, au Nigeria, au Cameroun, sur l'île de Bioko en Guinée équatoriale, dans le Sud-Ouest du Tchad, en République centrafricaine, au Soudan, en Ouganda, dans le sud-ouest de l'Éthiopie et dans le nord de la République démocratique du Congo].
 Sa présence en Mauritanie est incertaine.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Afrotyphlops punctatus liberiensis[2] a été élevée au rang d'espèce par Broadley et Wallach en 2009[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Afrotyphlops punctatus liberiensis a été élevée au rang d'espèce par Broadley et Wallach en 2009
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Leach, 1819 : Reptilia. Mission from Cape Coast Castle to Ashantee, p. 493-494 (texte intégral).</t>
         </is>
